--- a/data_year/zb/人民生活/城镇居民平均每百户年末主要耐用消费品拥有量.xlsx
+++ b/data_year/zb/人民生活/城镇居民平均每百户年末主要耐用消费品拥有量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,43 +599,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>30.0227352094</v>
       </c>
       <c r="C4" t="n">
-        <v>122.3</v>
+        <v>122.2853480397</v>
       </c>
       <c r="D4" t="n">
-        <v>53.8</v>
+        <v>53.8333557168</v>
       </c>
       <c r="E4" t="n">
-        <v>69.2</v>
+        <v>69.22777716829999</v>
       </c>
       <c r="F4" t="n">
-        <v>22.7</v>
+        <v>22.6503712232</v>
       </c>
       <c r="G4" t="n">
-        <v>92.3</v>
+        <v>92.284179673</v>
       </c>
       <c r="H4" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5829243968</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>33.0044748827</v>
       </c>
       <c r="J4" t="n">
-        <v>94</v>
+        <v>93.969701066</v>
       </c>
       <c r="K4" t="n">
-        <v>45.8</v>
+        <v>45.7519694698</v>
       </c>
       <c r="L4" t="n">
-        <v>223.8</v>
+        <v>223.8241534809</v>
       </c>
       <c r="M4" t="n">
-        <v>114.6</v>
+        <v>114.5818639015</v>
       </c>
       <c r="N4" t="n">
-        <v>78.5</v>
+        <v>78.51659280299999</v>
       </c>
     </row>
     <row r="5">
@@ -645,43 +645,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.5</v>
+        <v>35.4844</v>
       </c>
       <c r="C5" t="n">
-        <v>122.3</v>
+        <v>122.3235</v>
       </c>
       <c r="D5" t="n">
-        <v>55.3</v>
+        <v>55.3456</v>
       </c>
       <c r="E5" t="n">
-        <v>71.5</v>
+        <v>71.54819999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>20.9</v>
+        <v>20.9108</v>
       </c>
       <c r="G5" t="n">
-        <v>94.2</v>
+        <v>94.2088</v>
       </c>
       <c r="H5" t="n">
-        <v>88.7</v>
+        <v>88.6725</v>
       </c>
       <c r="I5" t="n">
-        <v>28.5</v>
+        <v>28.5493</v>
       </c>
       <c r="J5" t="n">
-        <v>96.40000000000001</v>
+        <v>96.44289999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>49.7</v>
+        <v>49.7494</v>
       </c>
       <c r="L5" t="n">
-        <v>231.4</v>
+        <v>231.3544</v>
       </c>
       <c r="M5" t="n">
-        <v>123.7</v>
+        <v>123.6993</v>
       </c>
       <c r="N5" t="n">
-        <v>80</v>
+        <v>79.9863</v>
       </c>
     </row>
     <row r="6">
@@ -691,43 +691,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.5</v>
+        <v>37.5182163746</v>
       </c>
       <c r="C6" t="n">
-        <v>123.8</v>
+        <v>123.7832057705</v>
       </c>
       <c r="D6" t="n">
-        <v>56.9</v>
+        <v>56.9423449287</v>
       </c>
       <c r="E6" t="n">
-        <v>73.7</v>
+        <v>73.7403128895</v>
       </c>
       <c r="F6" t="n">
-        <v>20.8</v>
+        <v>20.8431267035</v>
       </c>
       <c r="G6" t="n">
-        <v>95.7</v>
+        <v>95.6745414136</v>
       </c>
       <c r="H6" t="n">
-        <v>90.7</v>
+        <v>90.67640584279999</v>
       </c>
       <c r="I6" t="n">
-        <v>29.1</v>
+        <v>29.1301718207</v>
       </c>
       <c r="J6" t="n">
-        <v>98</v>
+        <v>98.04909180769999</v>
       </c>
       <c r="K6" t="n">
-        <v>53.1</v>
+        <v>53.0654051485</v>
       </c>
       <c r="L6" t="n">
-        <v>235.4</v>
+        <v>235.3982590261</v>
       </c>
       <c r="M6" t="n">
-        <v>128.6</v>
+        <v>128.6098480043</v>
       </c>
       <c r="N6" t="n">
-        <v>80.8</v>
+        <v>80.7593158434</v>
       </c>
     </row>
     <row r="7">
@@ -737,43 +737,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>41.0094857109</v>
       </c>
       <c r="C7" t="n">
-        <v>121.3</v>
+        <v>121.2643063627</v>
       </c>
       <c r="D7" t="n">
-        <v>55.2</v>
+        <v>55.2390210092</v>
       </c>
       <c r="E7" t="n">
-        <v>79.09999999999999</v>
+        <v>79.08949080159999</v>
       </c>
       <c r="F7" t="n">
-        <v>19.5</v>
+        <v>19.4984755469</v>
       </c>
       <c r="G7" t="n">
-        <v>97.7</v>
+        <v>97.6853400359</v>
       </c>
       <c r="H7" t="n">
-        <v>97.2</v>
+        <v>97.1740735946</v>
       </c>
       <c r="I7" t="n">
-        <v>20.2</v>
+        <v>20.1683014697</v>
       </c>
       <c r="J7" t="n">
-        <v>100.9</v>
+        <v>100.9183410113</v>
       </c>
       <c r="K7" t="n">
-        <v>55</v>
+        <v>54.98788334</v>
       </c>
       <c r="L7" t="n">
-        <v>243.1</v>
+        <v>243.1340305041</v>
       </c>
       <c r="M7" t="n">
-        <v>142.2</v>
+        <v>142.179007666</v>
       </c>
       <c r="N7" t="n">
-        <v>73.09999999999999</v>
+        <v>73.14196024420001</v>
       </c>
     </row>
     <row r="8">
@@ -783,43 +783,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.2</v>
+        <v>43.1551025884</v>
       </c>
       <c r="C8" t="n">
-        <v>122.8</v>
+        <v>122.8435541582</v>
       </c>
       <c r="D8" t="n">
-        <v>55.7</v>
+        <v>55.731223961</v>
       </c>
       <c r="E8" t="n">
-        <v>81.7</v>
+        <v>81.65446012530001</v>
       </c>
       <c r="F8" t="n">
-        <v>18.7</v>
+        <v>18.7160459405</v>
       </c>
       <c r="G8" t="n">
-        <v>99.2</v>
+        <v>99.19638661899999</v>
       </c>
       <c r="H8" t="n">
-        <v>98.2</v>
+        <v>98.15951744669999</v>
       </c>
       <c r="I8" t="n">
-        <v>19.5</v>
+        <v>19.4974710411</v>
       </c>
       <c r="J8" t="n">
-        <v>102.5</v>
+        <v>102.5092004963</v>
       </c>
       <c r="K8" t="n">
-        <v>59.4</v>
+        <v>59.4214423884</v>
       </c>
       <c r="L8" t="n">
-        <v>247.4</v>
+        <v>247.3960254183</v>
       </c>
       <c r="M8" t="n">
-        <v>148.3</v>
+        <v>148.2813879798</v>
       </c>
       <c r="N8" t="n">
-        <v>72.2</v>
+        <v>72.1564365556</v>
       </c>
     </row>
     <row r="9">
@@ -829,43 +829,125 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.9</v>
+        <v>44.8925593184322</v>
       </c>
       <c r="C9" t="n">
-        <v>123</v>
+        <v>122.972410994478</v>
       </c>
       <c r="D9" t="n">
-        <v>56.5</v>
+        <v>56.4751483619934</v>
       </c>
       <c r="E9" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5780507199576</v>
       </c>
       <c r="F9" t="n">
+        <v>18.232106721199</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99.7292432454896</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100.724599417361</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.3033416471746</v>
+      </c>
+      <c r="J9" t="n">
+        <v>103.12801307813</v>
+      </c>
+      <c r="K9" t="n">
+        <v>62.0147964533772</v>
+      </c>
+      <c r="L9" t="n">
+        <v>248.736470716752</v>
+      </c>
+      <c r="M9" t="n">
+        <v>149.555710847222</v>
+      </c>
+      <c r="N9" t="n">
+        <v>72.9436547616519</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F10" t="n">
         <v>18.2</v>
       </c>
-      <c r="G9" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>62</v>
-      </c>
-      <c r="L9" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="M9" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>72.90000000000001</v>
+      <c r="G10" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>51.4140502788285</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120.605613311057</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>17.8730120235081</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100.605341797751</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>104.358673401063</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>253.964768132876</v>
+      </c>
+      <c r="M11" t="n">
+        <v>163.497427518846</v>
+      </c>
+      <c r="N11" t="n">
+        <v>63.3923591148273</v>
       </c>
     </row>
   </sheetData>
